--- a/Students/Others/Lab30423.xlsx
+++ b/Students/Others/Lab30423.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,11 +304,6 @@
       <sz val="12.1"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -755,21 +750,21 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1119,7 +1114,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,11 +1497,21 @@
       <c r="K11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="R11" s="3">
         <v>1</v>
       </c>
@@ -1673,11 +1678,21 @@
       <c r="K16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R16" s="4">
         <v>1</v>
       </c>
@@ -1930,11 +1945,21 @@
       <c r="K24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R24" s="4">
         <v>8</v>
       </c>

--- a/Students/Others/Lab30423.xlsx
+++ b/Students/Others/Lab30423.xlsx
@@ -739,7 +739,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -757,14 +757,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1114,7 +1121,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="Q1" sqref="Q1:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,19 +1186,19 @@
       <c r="P1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1217,10 +1224,11 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1248,13 +1256,14 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="10"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -1278,13 +1287,14 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="11">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10">
         <f>IF((R4+S4)/2 + Q4 &gt; 10, 10, (R4+S4)/2 + Q4)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="11"/>
+      <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1308,13 +1318,14 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9">
         <f t="shared" ref="T5:T24" si="1">IF((R5+S5)/2 + Q5 &gt; 10, 10, (R5+S5)/2 + Q5)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="10"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1338,13 +1349,14 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U6" s="11"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1368,13 +1380,14 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="10">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="10"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1400,13 +1413,14 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="11">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U8" s="11"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1430,13 +1444,14 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="10">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U9" s="10"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1460,13 +1475,14 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="11">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U10" s="11"/>
+      <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -1512,17 +1528,18 @@
       <c r="P11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="3">
+      <c r="Q11" s="13"/>
+      <c r="R11" s="9">
         <v>1</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="9">
         <v>1</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U11" s="10" t="str">
+      <c r="U11" s="9" t="str">
         <f t="shared" ref="U11:U24" si="2">IF(AND(R11&gt;5, S11&gt;5), "pass", "fail")</f>
         <v>fail</v>
       </c>
@@ -1551,13 +1568,14 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="11">
+      <c r="Q12" s="13"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U12" s="11"/>
+      <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -1581,13 +1599,14 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="10">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="10"/>
+      <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1611,13 +1630,14 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="11">
+      <c r="Q14" s="13"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U14" s="11"/>
+      <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1641,13 +1661,14 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="10">
+      <c r="Q15" s="13"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U15" s="10"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1693,17 +1714,18 @@
       <c r="P16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="4">
+      <c r="Q16" s="13"/>
+      <c r="R16" s="10">
         <v>1</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="10">
         <v>1</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U16" s="11" t="str">
+      <c r="U16" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>
@@ -1730,13 +1752,14 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="10">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U17" s="10"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1760,13 +1783,14 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="11">
+      <c r="Q18" s="13"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="11"/>
+      <c r="U18" s="10"/>
     </row>
     <row r="19" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1790,13 +1814,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="10">
+      <c r="Q19" s="13"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="10"/>
+      <c r="U19" s="9"/>
     </row>
     <row r="20" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1820,13 +1845,14 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="11">
+      <c r="Q20" s="13"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="11"/>
+      <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1850,13 +1876,14 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="10">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21" s="10"/>
+      <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -1880,13 +1907,14 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="11">
+      <c r="Q22" s="13"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="11"/>
+      <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1912,13 +1940,14 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="10">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U23" s="10"/>
+      <c r="U23" s="9"/>
     </row>
     <row r="24" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1960,17 +1989,18 @@
       <c r="P24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="4">
+      <c r="Q24" s="13"/>
+      <c r="R24" s="10">
         <v>8</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="10">
         <v>1</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="10">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="U24" s="11" t="str">
+      <c r="U24" s="10" t="str">
         <f t="shared" si="2"/>
         <v>fail</v>
       </c>

--- a/Students/Others/Lab30423.xlsx
+++ b/Students/Others/Lab30423.xlsx
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:U24"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,10 +1225,20 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="13"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="R2" s="4">
+        <v>10</v>
+      </c>
+      <c r="S2" s="4">
+        <v>9</v>
+      </c>
+      <c r="T2" s="3">
+        <f>IF((R2+S2)/2 + Q2 &gt; 10, 10, (R2+S2)/2 + Q2)</f>
+        <v>9.5</v>
+      </c>
+      <c r="U2" s="9" t="str">
+        <f>IF(AND(R2&gt;=5, S2&gt;=5), "pass", "fail")</f>
+        <v>pass</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1257,13 +1267,20 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9">
+      <c r="R3" s="3">
+        <v>9</v>
+      </c>
+      <c r="S3" s="3">
+        <v>9</v>
+      </c>
+      <c r="T3" s="3">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="U3" s="9" t="str">
+        <f t="shared" ref="U3:U24" si="1">IF(AND(R3&gt;=5, S3&gt;=5), "pass", "fail")</f>
+        <v>pass</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -1288,13 +1305,20 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
+      <c r="S4" s="4">
+        <v>10</v>
+      </c>
       <c r="T4" s="10">
         <f>IF((R4+S4)/2 + Q4 &gt; 10, 10, (R4+S4)/2 + Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="U4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1319,13 +1343,20 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="13"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9">
-        <f t="shared" ref="T5:T24" si="1">IF((R5+S5)/2 + Q5 &gt; 10, 10, (R5+S5)/2 + Q5)</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="9"/>
+      <c r="R5" s="3">
+        <v>8</v>
+      </c>
+      <c r="S5" s="3">
+        <v>9</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" ref="T5:T24" si="2">IF((R5+S5)/2 + Q5 &gt; 10, 10, (R5+S5)/2 + Q5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="U5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1350,13 +1381,20 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10">
+      <c r="R6" s="4">
+        <v>10</v>
+      </c>
+      <c r="S6" s="4">
+        <v>9</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="U6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="10"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1381,13 +1419,20 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="R7" s="3">
+        <v>7</v>
+      </c>
+      <c r="S7" s="3">
+        <v>9</v>
+      </c>
       <c r="T7" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="9"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1414,13 +1459,20 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="R8" s="4">
+        <v>5</v>
+      </c>
+      <c r="S8" s="4">
+        <v>5</v>
+      </c>
       <c r="T8" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="10"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1445,13 +1497,20 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="13"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="R9" s="3">
+        <v>10</v>
+      </c>
+      <c r="S9" s="3">
+        <v>9</v>
+      </c>
       <c r="T9" s="9">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="U9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="9"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1476,13 +1535,20 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="13"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="R10" s="4">
+        <v>10</v>
+      </c>
+      <c r="S10" s="4">
+        <v>10</v>
+      </c>
       <c r="T10" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="10"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -1529,18 +1595,18 @@
         <v>39</v>
       </c>
       <c r="Q11" s="13"/>
-      <c r="R11" s="9">
-        <v>1</v>
-      </c>
-      <c r="S11" s="9">
-        <v>1</v>
+      <c r="R11" s="3">
+        <v>8.25</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3.6</v>
       </c>
       <c r="T11" s="9">
+        <f t="shared" si="2"/>
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="U11" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U11" s="9" t="str">
-        <f t="shared" ref="U11:U24" si="2">IF(AND(R11&gt;5, S11&gt;5), "pass", "fail")</f>
         <v>fail</v>
       </c>
     </row>
@@ -1569,13 +1635,20 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="R12" s="4">
+        <v>10</v>
+      </c>
+      <c r="S12" s="4">
+        <v>9</v>
+      </c>
       <c r="T12" s="10">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="U12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="10"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -1600,13 +1673,20 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="R13" s="3">
+        <v>10</v>
+      </c>
+      <c r="S13" s="3">
+        <v>9</v>
+      </c>
       <c r="T13" s="9">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="U13" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="9"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1631,13 +1711,20 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="13"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="R14" s="4">
+        <v>9</v>
+      </c>
+      <c r="S14" s="4">
+        <v>9</v>
+      </c>
       <c r="T14" s="10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U14" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="10"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1662,13 +1749,20 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="R15" s="3">
+        <v>9</v>
+      </c>
+      <c r="S15" s="3">
+        <v>9</v>
+      </c>
       <c r="T15" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U15" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="9"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1715,18 +1809,18 @@
         <v>39</v>
       </c>
       <c r="Q16" s="13"/>
-      <c r="R16" s="10">
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <v>1</v>
+      <c r="R16" s="4">
+        <v>9.75</v>
+      </c>
+      <c r="S16" s="4">
+        <v>2</v>
       </c>
       <c r="T16" s="10">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+      <c r="U16" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U16" s="10" t="str">
-        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
     </row>
@@ -1753,13 +1847,20 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="13"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="R17" s="3">
+        <v>7</v>
+      </c>
+      <c r="S17" s="3">
+        <v>9</v>
+      </c>
       <c r="T17" s="9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U17" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="9"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1784,13 +1885,20 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="13"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="R18" s="4">
+        <v>10</v>
+      </c>
+      <c r="S18" s="4">
+        <v>9</v>
+      </c>
       <c r="T18" s="10">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="U18" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="10"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1815,13 +1923,20 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
+      <c r="R19" s="3">
+        <v>10</v>
+      </c>
+      <c r="S19" s="3">
+        <v>10</v>
+      </c>
       <c r="T19" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U19" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="9"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1846,13 +1961,20 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="13"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="R20" s="4">
+        <v>10</v>
+      </c>
+      <c r="S20" s="4">
+        <v>9</v>
+      </c>
       <c r="T20" s="10">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="U20" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="10"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1877,13 +1999,20 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
+      <c r="R21" s="3">
+        <v>9</v>
+      </c>
+      <c r="S21" s="3">
+        <v>9</v>
+      </c>
       <c r="T21" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="U21" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="9"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -1908,13 +2037,20 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="13"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="R22" s="4">
+        <v>10</v>
+      </c>
+      <c r="S22" s="4">
+        <v>10</v>
+      </c>
       <c r="T22" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U22" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="10"/>
+        <v>pass</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1941,13 +2077,20 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>6</v>
+      </c>
       <c r="T23" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="U23" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="9"/>
+        <v>fail</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1990,18 +2133,18 @@
         <v>39</v>
       </c>
       <c r="Q24" s="13"/>
-      <c r="R24" s="10">
+      <c r="R24" s="4">
         <v>8</v>
       </c>
-      <c r="S24" s="10">
-        <v>1</v>
+      <c r="S24" s="4">
+        <v>4</v>
       </c>
       <c r="T24" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U24" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="U24" s="10" t="str">
-        <f t="shared" si="2"/>
         <v>fail</v>
       </c>
     </row>
